--- a/Data Files/test1.xlsx
+++ b/Data Files/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2D00E-7234-4252-9A5F-FB92F9E4CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C01195C-D2DA-47A4-A586-CFDDF9B3B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2730" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>creationDate</t>
   </si>
@@ -179,9 +179,6 @@
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>new_entry</t>
-  </si>
-  <si>
     <t>51000</t>
   </si>
   <si>
@@ -244,12 +241,18 @@
   <si>
     <t>[2|2|6|60/6|บ่อวิน|ศรีราชา|ชลบุรี|โกดังสินค้า|195067|5112425|0|5112425|1]</t>
   </si>
+  <si>
+    <t>GHAxx_00a</t>
+  </si>
+  <si>
+    <t>increase_limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +270,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6993FF"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,6 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +628,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +683,7 @@
   <sheetData>
     <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -727,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>17</v>
@@ -814,12 +824,11 @@
       <c r="AX1" s="2"/>
     </row>
     <row r="2" spans="1:50 16383:16384" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto27_1</v>
+      <c r="A2" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -835,52 +844,52 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -888,40 +897,40 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
